--- a/DOM_Banner/output/dept_banner/Sebastian Silva_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Sebastian Silva_2022.xlsx
@@ -713,15 +713,193 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>https://openalex.org/W4225607921</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Privacy-Preserving Case-Based Explanations: Enabling Visual Interpretability by Protecting Privacy</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>list(au_id = c("https://openalex.org/A5000653235", "https://openalex.org/A5014798951", "https://openalex.org/A5069676179", "https://openalex.org/A5057424614", "https://openalex.org/A5043560713", "https://openalex.org/A5013827007"), au_display_name = c("Helena Montenegro", "Wilson Silva", "Alex Gaudio", "Matt Fredrikson", "Asim﻿ Smailagic", "Jaime S. Cardoso"), au_orcid = c(NA, "https://orcid.org/0000-0003-3526-7197", "https://orcid.org/0000-0003-1380-6620", NA, "https://orcid.org/0000-0001-8524-997X", 
+"https://orcid.org/0000-0002-3760-2473"), author_position = c("first", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Faculty of Engineering of the University of Porto, Porto, Portugal and INESC TEC, Porto, Portugal.", "Faculty of Engineering of the University of Porto, Porto, Portugal and INESC TEC, Porto, Portugal.", "Faculty of Engineering of the University of Porto, Porto, Portugal and INESC TEC, Porto, Portugal and Electrical and Computer Engineering, Carnegie Mellon University, Pittsburgh, PA 15213, United States.", 
+"School of Computer Science, Carnegie Mellon University, Pittsburgh, PA 15213, United States.", "Electrical and Computer Engineering, Carnegie Mellon University, Pittsburgh, PA 15213, United States and School of Computer Science, Carnegie Mellon University, Pittsburgh, PA 15213, United States.", "Faculty of Engineering of the University of Porto, Porto, Portugal and INESC TEC, Porto, Portugal."), institution_id = c("https://openalex.org/I4210166615", "https://openalex.org/I4210166615", "https://openalex.org/I74973139", 
+"https://openalex.org/I74973139", "https://openalex.org/I74973139", "https://openalex.org/I4210166615"), institution_display_name = c("Institute for Systems and Computer Engineering of Porto", "Institute for Systems and Computer Engineering of Porto", "Carnegie Mellon University", "Carnegie Mellon University", "Carnegie Mellon University", "Institute for Systems and Computer Engineering of Porto"), institution_ror = c("https://ror.org/05fa8ka61", "https://ror.org/05fa8ka61", "https://ror.org/05x2bcf33", 
+"https://ror.org/05x2bcf33", "https://ror.org/05x2bcf33", "https://ror.org/05fa8ka61"), institution_country_code = c("PT", "PT", "US", "US", "US", "PT"), institution_type = c("nonprofit", "nonprofit", "education", "education", "education", "nonprofit"), institution_lineage = c("https://openalex.org/I4210125590, https://openalex.org/I4210166615", "https://openalex.org/I4210125590, https://openalex.org/I4210166615", "https://openalex.org/I74973139", "https://openalex.org/I74973139", "https://openalex.org/I74973139", 
+"https://openalex.org/I4210125590, https://openalex.org/I4210166615"))</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Deep Learning achieves state-of-the-art results in many domains, yet its black-box nature limits its application to real-world contexts. An intuitive way to improve the interpretability of Deep Learning models is by explaining their decisions with similar cases. However, case-based explanations cannot be used in contexts where the data exposes personal identity, as they may compromise the privacy of individuals. In this work, we identify the main limitations and challenges in the anonymization of case-based explanations of image data through a survey on case-based interpretability and image anonymization methods. We empirically analyze the anonymization methods in regards to their capacity to remove personally identifiable information while preserving relevant semantic properties of the data. Through this analysis, we conclude that most privacy-preserving methods are not sufficiently good to be applied to case-based explanations. To promote research on this topic, we formalize the privacy protection of visual case-based explanations as a multi-objective problem to preserve privacy, intelligibility, and relevant explanatory evidence regarding a predictive task. We empirically verify the potential of interpretability saliency maps as qualitative evaluation tools for anonymization. Finally, we identify and propose new lines of research to guide future work in the generation of privacy-preserving case-based explanations.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2022-01-01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>IEEE Access</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://openalex.org/S2485537415</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Institute of Electrical and Electronics Engineers</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2169-3536</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/access.2022.3157589</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>https://ieeexplore.ieee.org/ielx7/6287639/9668973/09729808.pdf</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>publishedVersion</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>28333</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>28347</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>https://ieeexplore.ieee.org/ielx7/6287639/9668973/09729808.pdf</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>c(funder = "https://openalex.org/F4320310207", funder_display_name = "Carnegie Mellon University", funder = "https://openalex.org/F4320334779", funder_display_name = "Fundação para a Ciência e a Tecnologia", award_id = "SFRH/BD/139468/2018")</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>https://api.openalex.org/works?filter=cites:W4225607921</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>c(openalex = "https://openalex.org/W4225607921", doi = "https://doi.org/10.1109/access.2022.3157589")</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/access.2022.3157589</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W1578378315", "https://openalex.org/W2083192529", "https://openalex.org/W2103958416", "https://openalex.org/W2110884135", "https://openalex.org/W2133665775", "https://openalex.org/W2214685504", "https://openalex.org/W2511806070", "https://openalex.org/W2914794838", "https://openalex.org/W2963278610", "https://openalex.org/W2964155457", "https://openalex.org/W2965674570", "https://openalex.org/W3004725381", "https://openalex.org/W3005260261", "https://openalex.org/W3041378136", 
+"https://openalex.org/W3048161992", "https://openalex.org/W3090301213", "https://openalex.org/W3092830972", "https://openalex.org/W3112857588", "https://openalex.org/W3121787084", "https://openalex.org/W3138819813", "https://openalex.org/W3210588961")</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>c("https://openalex.org/W3171066746", "https://openalex.org/W3166730876", "https://openalex.org/W4321276801", "https://openalex.org/W3010781909", "https://openalex.org/W4200233390", "https://openalex.org/W4315705624", "https://openalex.org/W3116386889", "https://openalex.org/W2605443953", "https://openalex.org/W4313218046", "https://openalex.org/W1992286709")</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283156459</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>The effect of a Mentor Mothers program on prevention of vertical transmission of HIV outcomes in Zambézia Province, Mozambique: a retrospective interrupted time series analysis</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>list(au_id = c("https://openalex.org/A5086806326", "https://openalex.org/A5052611762", "https://openalex.org/A5041475521", "https://openalex.org/A5006252523", "https://openalex.org/A5078610491", "https://openalex.org/A5014402745", "https://openalex.org/A5063019468", "https://openalex.org/A5011698880", "https://openalex.org/A5014798951", "https://openalex.org/A5063033796", "https://openalex.org/A5004064149", "https://openalex.org/A5048696525", "https://openalex.org/A5087732390", "https://openalex.org/A5047760638"
 ), au_display_name = c("James G. Carlucci", "Zhihong Yu", "Purificación González", "Magdalena Bravo", "Gustavo Amorim", "Cristina das Felicidades Cugara", "Helga Guambe", "Jaime Mucanhenga", "Wilson Silva", "José A. Tique", "Maria Fernanda Sardella Alvim", "Erin Graves", "Caroline De Schacht", "Carolyn Wester"), au_orcid = c("https://orcid.org/0000-0002-3969-8544", "https://orcid.org/0000-0003-1533-3732", NA, NA, "https://orcid.org/0000-0003-1723-1035", NA, NA, NA, "https://orcid.org/0000-0003-3526-7197", 
@@ -734,327 +912,149 @@
 NA, "https://openalex.org/I4210162197, https://openalex.org/I901861585"))</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Mentor Mothers (MM) provide peer support to pregnant and postpartum women living with HIV (PPWH) and their infants with perinatal HIV exposure (IPE) throughout the cascade of prevention of vertical transmission (PVT) services. MM were implemented in Zambézia Province, Mozambique starting in August 2017. This evaluation aimed to determine the effect of MM on PVT outcomes.A retrospective interrupted time series analysis was done using routinely collected aggregate data from 85 public health facilities providing HIV services in nine districts of Zambézia. All PPWH (and their IPE) who initiated antiretroviral therapy (ART) from August 2016 through April 2019 were included. Outcomes included the proportion per month per district of: PPWH retained in care 12 months after ART initiation, PPWH with viral suppression and IPE with HIV DNA PCR test positivity by 9 months of age. The effect of MM on outcomes was assessed using logistic regression.The odds of 12-month retention increased 1.5% per month in the pre-MM period, compared to a monthly increase of 7.6% with-MM (35-61% pre-MM, 56-72% with-MM; p &lt; 0.001). The odds of being virally suppressed decreased by 0.9% per month in the pre-MM period, compared to a monthly increase of 3.9% with-MM (49-85% pre-MM, 59-80% with-MM; p &lt; 0.001). The odds of DNA PCR positivity by 9 months of age decreased 8.9% per month in the pre-MM period, compared to a monthly decrease of 0.4% with-MM (0-14% pre-MM, 4-10% with-MM; p &lt; 0.001). The odds of DNA PCR uptake (the proportion of IPE who received DNA PCR testing) by 9 months of age were significantly higher in the with-MM period compared to the pre-MM period (48-100% pre-MM, 87-100% with-MM; p &lt; 0.001).MM services were associated with improved retention in PVT services and higher viral suppression rates among PPWH. While there was ongoing but diminishing improvement in DNA PCR positivity rates among IPE following MM implementation, this might be explained by increased uptake of HIV testing among high-risk IPE who were previously not getting tested. Additional efforts are needed to further optimize PVT outcomes, and MM should be one part of a comprehensive strategy to address this critical need.</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Journal of the International AIDS Society</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>https://openalex.org/S66330005</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>International AIDS Society</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>1758-2652</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/jia2.25952</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC9207359</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>https://api.openalex.org/works?filter=cites:W4283156459</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>c(openalex = "https://openalex.org/W4283156459", doi = "https://doi.org/10.1002/jia2.25952", pmid = "https://pubmed.ncbi.nlm.nih.gov/35718940")</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/jia2.25952</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>c("https://openalex.org/W2612287908", "https://openalex.org/W2612375292", "https://openalex.org/W2612777352", "https://openalex.org/W2613603545", "https://openalex.org/W2899848659", "https://openalex.org/W2913091107", "https://openalex.org/W2967305571", "https://openalex.org/W2992210927", "https://openalex.org/W3008301033", "https://openalex.org/W3091887120", "https://openalex.org/W4206511863")</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>c("https://openalex.org/W4315650970", "https://openalex.org/W1999597698", "https://openalex.org/W2118847041", "https://openalex.org/W2024025088", "https://openalex.org/W2016483411", "https://openalex.org/W2403534611", "https://openalex.org/W2167134322", "https://openalex.org/W2419315711", "https://openalex.org/W2406819912", "https://openalex.org/W2038226175")</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4225607921</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Privacy-Preserving Case-Based Explanations: Enabling Visual Interpretability by Protecting Privacy</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5000653235", "https://openalex.org/A5014798951", "https://openalex.org/A5069676179", "https://openalex.org/A5057424614", "https://openalex.org/A5043560713", "https://openalex.org/A5013827007"), au_display_name = c("Helena Montenegro", "Wilson Silva", "Alex Gaudio", "Matt Fredrikson", "Asim﻿ Smailagic", "Jaime S. Cardoso"), au_orcid = c(NA, "https://orcid.org/0000-0003-3526-7197", "https://orcid.org/0000-0003-1380-6620", NA, "https://orcid.org/0000-0001-8524-997X", 
-"https://orcid.org/0000-0002-3760-2473"), author_position = c("first", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Faculty of Engineering of the University of Porto, Porto, Portugal and INESC TEC, Porto, Portugal.", "Faculty of Engineering of the University of Porto, Porto, Portugal and INESC TEC, Porto, Portugal.", "Faculty of Engineering of the University of Porto, Porto, Portugal and INESC TEC, Porto, Portugal and Electrical and Computer Engineering, Carnegie Mellon University, Pittsburgh, PA 15213, United States.", 
-"School of Computer Science, Carnegie Mellon University, Pittsburgh, PA 15213, United States.", "Electrical and Computer Engineering, Carnegie Mellon University, Pittsburgh, PA 15213, United States and School of Computer Science, Carnegie Mellon University, Pittsburgh, PA 15213, United States.", "Faculty of Engineering of the University of Porto, Porto, Portugal and INESC TEC, Porto, Portugal."), institution_id = c("https://openalex.org/I4210166615", "https://openalex.org/I4210166615", "https://openalex.org/I74973139", 
-"https://openalex.org/I74973139", "https://openalex.org/I74973139", "https://openalex.org/I4210166615"), institution_display_name = c("Institute for Systems and Computer Engineering of Porto", "Institute for Systems and Computer Engineering of Porto", "Carnegie Mellon University", "Carnegie Mellon University", "Carnegie Mellon University", "Institute for Systems and Computer Engineering of Porto"), institution_ror = c("https://ror.org/05fa8ka61", "https://ror.org/05fa8ka61", "https://ror.org/05x2bcf33", 
-"https://ror.org/05x2bcf33", "https://ror.org/05x2bcf33", "https://ror.org/05fa8ka61"), institution_country_code = c("PT", "PT", "US", "US", "US", "PT"), institution_type = c("nonprofit", "nonprofit", "education", "education", "education", "nonprofit"), institution_lineage = c("https://openalex.org/I4210125590, https://openalex.org/I4210166615", "https://openalex.org/I4210125590, https://openalex.org/I4210166615", "https://openalex.org/I74973139", "https://openalex.org/I74973139", "https://openalex.org/I74973139", 
-"https://openalex.org/I4210125590, https://openalex.org/I4210166615"))</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Deep Learning achieves state-of-the-art results in many domains, yet its black-box nature limits its application to real-world contexts. An intuitive way to improve the interpretability of Deep Learning models is by explaining their decisions with similar cases. However, case-based explanations cannot be used in contexts where the data exposes personal identity, as they may compromise the privacy of individuals. In this work, we identify the main limitations and challenges in the anonymization of case-based explanations of image data through a survey on case-based interpretability and image anonymization methods. We empirically analyze the anonymization methods in regards to their capacity to remove personally identifiable information while preserving relevant semantic properties of the data. Through this analysis, we conclude that most privacy-preserving methods are not sufficiently good to be applied to case-based explanations. To promote research on this topic, we formalize the privacy protection of visual case-based explanations as a multi-objective problem to preserve privacy, intelligibility, and relevant explanatory evidence regarding a predictive task. We empirically verify the potential of interpretability saliency maps as qualitative evaluation tools for anonymization. Finally, we identify and propose new lines of research to guide future work in the generation of privacy-preserving case-based explanations.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>IEEE Access</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://openalex.org/S2485537415</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Institute of Electrical and Electronics Engineers</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2169-3536</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/access.2022.3157589</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>https://ieeexplore.ieee.org/ielx7/6287639/9668973/09729808.pdf</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>cc-by</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>28333</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>28347</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>gold</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>https://ieeexplore.ieee.org/ielx7/6287639/9668973/09729808.pdf</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>c(funder = "https://openalex.org/F4320310207", funder_display_name = "Carnegie Mellon University", funder = "https://openalex.org/F4320334779", funder_display_name = "Fundação para a Ciência e a Tecnologia", award_id = "SFRH/BD/139468/2018")</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4225607921</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4225607921", doi = "https://doi.org/10.1109/access.2022.3157589")</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1109/access.2022.3157589</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1578378315", "https://openalex.org/W2083192529", "https://openalex.org/W2103958416", "https://openalex.org/W2110884135", "https://openalex.org/W2133665775", "https://openalex.org/W2214685504", "https://openalex.org/W2511806070", "https://openalex.org/W2914794838", "https://openalex.org/W2963278610", "https://openalex.org/W2964155457", "https://openalex.org/W2965674570", "https://openalex.org/W3004725381", "https://openalex.org/W3005260261", "https://openalex.org/W3041378136", 
-"https://openalex.org/W3048161992", "https://openalex.org/W3090301213", "https://openalex.org/W3092830972", "https://openalex.org/W3112857588", "https://openalex.org/W3121787084", "https://openalex.org/W3138819813", "https://openalex.org/W3210588961")</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W3171066746", "https://openalex.org/W3166730876", "https://openalex.org/W4321276801", "https://openalex.org/W3010781909", "https://openalex.org/W4200233390", "https://openalex.org/W4315705624", "https://openalex.org/W3116386889", "https://openalex.org/W2605443953", "https://openalex.org/W4313218046", "https://openalex.org/W1992286709")</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1103,22 +1103,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Journal of Acquired Immune Deficiency Syndromes</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://openalex.org/S157460402</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1525-4135</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Sebastian Silva_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Sebastian Silva_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>INESC TEC, Porto, Portugal; INESC TEC, Porto, Portugal; Department of Diagnostic, Interventional and Pediatric Radiology, Inselspital, Bern University Hospital, University of Bern, Bern, Switzerland; Department of Diagnostic, Interventional and Pediatric Radiology, Inselspital, Bern University Hospital, University of Bern, Bern, Switzerland; Department of Diagnostic, Interventional and Pediatric Radiology, Inselspital, Bern University Hospital, University of Bern, Bern, Switzerland; Department of Diagnostic, Interventional and Pediatric Radiology, Inselspital, Bern University Hospital, University of Bern, Bern, Switzerland; Department of Diagnostic, Interventional and Pediatric Radiology, Inselspital, Bern University Hospital, University of Bern, Bern, Switzerland; ARTORG Center for Biomedical Engineering Research, University of Bern, Bern, Switzerland; Faculty of Engineering, University of Porto, Porto, Portugal</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4310706120</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Computer-aided diagnosis through medical image retrieval in radiology</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Scientific Reports</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Nature Portfolio</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41598-022-25027-2</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36456605</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41598-022-25027-2</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Faculty of Engineering of the University of Porto, Porto, Portugal and INESC TEC, Porto, Portugal.; Faculty of Engineering of the University of Porto, Porto, Portugal and INESC TEC, Porto, Portugal.; Faculty of Engineering of the University of Porto, Porto, Portugal and INESC TEC, Porto, Portugal and Electrical and Computer Engineering, Carnegie Mellon University, Pittsburgh, PA 15213, United States.; School of Computer Science, Carnegie Mellon University, Pittsburgh, PA 15213, United States.; Electrical and Computer Engineering, Carnegie Mellon University, Pittsburgh, PA 15213, United States and School of Computer Science, Carnegie Mellon University, Pittsburgh, PA 15213, United States.; Faculty of Engineering of the University of Porto, Porto, Portugal and INESC TEC, Porto, Portugal.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225607921</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Privacy-Preserving Case-Based Explanations: Enabling Visual Interpretability by Protecting Privacy</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>IEEE Access</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Institute of Electrical and Electronics Engineers</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/access.2022.3157589</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1109/access.2022.3157589</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Ryan White Center for Pediatric Infectious Diseases and Global Health, Department of Pediatrics, Indiana University School of Medicine, Indianapolis, Indiana, USA; Department of Biostatistics, Vanderbilt University Medical Center, Nashville, Tennessee, USA.; At the time of study completion.; Friends in Global Health, Quelimane, Mozambique; Friends in Global Health, Maputo, Mozambique.; Department of Biostatistics, Vanderbilt University Medical Center, Nashville, Tennessee, USA.; Ministry of Health Provincial Health Directorate of Zambézia  Quelimane Mozambique; Ministry of Health, National Directorate of Public Health, Maputo, Mozambique; Friends in Global Health, Quelimane, Mozambique; Friends in Global Health, Maputo, Mozambique.; Friends in Global Health, Maputo, Mozambique.; Friends in Global Health, Maputo, Mozambique.; Vanderbilt Institute for Global Health, Vanderbilt University Medical Center, Nashville, Tennessee, USA.; Friends in Global Health, Maputo, Mozambique.; Vanderbilt Institute for Global Health, Vanderbilt University Medical Center, Nashville, Tennessee, USA.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283156459</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>The effect of a Mentor Mothers program on prevention of vertical transmission of HIV outcomes in Zambézia Province, Mozambique: a retrospective interrupted time series analysis</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Journal of the International AIDS Society</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>International AIDS Society</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/jia2.25952</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35718940</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1002/jia2.25952</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Vanderbilt University Medical Center, Department of Pediatrics, Division of Pediatric Infectious Diseases, Nashville, TN; Friends in Global Health, Maputo, Mozambique;; Vanderbilt University Medical Center, Institute for Global Health, Nashville, TN; Friends in Global Health, Quelimane,; Friends in Global Health, Maputo, Mozambique;; Vanderbilt University Medical Center, Department of Biostatistics, Nashville, TN; Vanderbilt University Medical Center, Department of Biostatistics, Nashville, TN; WellStar Kennestone Hospital, Marietta, GA; Friends in Global Health, Maputo, Mozambique;; Friends in Global Health, Maputo, Mozambique;; ; Ministry of Health, National Directorate of Public Health, Maputo,; Provincial Health Directorate of Zambézia, Quelimane, Mozambique; and; Vanderbilt University Medical Center, Institute for Global Health, Nashville, TN</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4225514408</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>CD4 Trends With Evolving Treatment Initiation Policies Among Children Living With HIV in Zambézia Province, Mozambique, 2012–2018</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-02-08</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Journal of Acquired Immune Deficiency Syndromes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/qai.0000000000002870</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34840319</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/qai.0000000000002870</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Faculty of Engineering, University of Porto, Porto, Portugal; Faculty of Engineering, University of Porto, Porto, Portugal; INESC TEC, Porto, Portugal; INESC TEC, Porto, Portugal; INESC TEC, Porto, Portugal</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4226368520</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Deep Aesthetic Assessment and Retrieval of Breast Cancer Treatment Outcomes</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Lecture Notes in Computer Science</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-031-04881-4_9</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-031-04881-4_9</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Faculdade de Engenharia, Universidade do Porto, Porto, Portugal; Faculdade de Engenharia, Universidade do Porto, Porto, Portugal; Faculdade de Engenharia, Universidade do Porto, Porto, Portugal</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4226517485</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Increased Robustness in Chest X-Ray Classification Through Clinical Report-Driven Regularization</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Lecture Notes in Computer Science</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-031-04881-4_10</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/978-3-031-04881-4_10</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Institute for Systems and Computer Engineering of Porto; Institute for Systems and Computer Engineering of Porto; University Hospital of Bern; University Hospital of Bern; University Hospital of Bern; University Hospital of Bern; University Hospital of Bern; University of Bern; University of Porto</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281893517</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Computer-aided Diagnosis through Medical Image Retrieval in Radiology</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-05-31</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Research Square (Research Square)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Research Square (United States)</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.21203/rs.3.rs-1661223/v1</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.21203/rs.3.rs-1661223/v1</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4292958758</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Explainable Biometrics in the Age of Deep Learning</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-08-19</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>arXiv (Cornell University)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Cornell University</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://arxiv.org/abs/2208.09500</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arxiv.2208.09500</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>INESC TEC, Porto, Portugal.; FARFETCH, Porto, Portugal; INESC TEC, Porto, Portugal; INESC TEC, Porto, Portugal; INESC TEC, Porto, Portugal; INESC TEC, Porto, Portugal; INESC TEC, Porto, Portugal; INESC TEC, Porto, Portugal; INESC TEC, Porto, Portugal; FARFETCH, Porto, Portugal; FARFETCH, Porto, Portugal; Interdisciplinary Centre for Security, Reliability and Trust, Luxembourg University, Kirchberg, Luxembourg; Interdisciplinary Centre for Security, Reliability and Trust, Luxembourg University, Kirchberg, Luxembourg; Language Technologies Institute, Carnegie Mellon University, Pittsburgh, Pennsylvania, USA; University of Stuttgart, Stuttgart, Germany; Juraj Dobrila University of Pula, Pula, Croatia; Universita degli studi di Genova, Genova, Italy; Visual Geometry and Modelling (VGM) Lab Italian Institute of Technology (IIT), Genova, Italy; Indian Institute of Technology, Hyderabad, India; University of Porto, Porto, Portugal</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4313357414</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Fill in the blank for fashion complementary outfit product Retrieval: VISUM summer school competition</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-12-30</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Machine Vision and Applications</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s00138-022-01359-x</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36597466</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s00138-022-01359-x</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,76 +1235,81 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4389841896</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Deep Aesthetic Assessment and Retrieval of Breast Cancer Treatment
   Outcomes</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-05-25</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>arXiv (Cornell University)</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Cornell University</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://arxiv.org/abs/2205.12611</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.48550/arxiv.2205.12611</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
